--- a/Code/Results/Cases/Case_1_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.292314764988951</v>
+        <v>5.990141067415806</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.096523418124545</v>
+        <v>10.01800681850788</v>
       </c>
       <c r="E2">
-        <v>9.341016577548707</v>
+        <v>14.22079268370544</v>
       </c>
       <c r="F2">
-        <v>20.05930560908604</v>
+        <v>29.3093987828187</v>
       </c>
       <c r="G2">
-        <v>21.29026739818709</v>
+        <v>28.34028732308941</v>
       </c>
       <c r="H2">
-        <v>8.470327113177113</v>
+        <v>14.21447172672921</v>
       </c>
       <c r="I2">
-        <v>12.37118671852452</v>
+        <v>19.68792378048687</v>
       </c>
       <c r="J2">
-        <v>5.860406241083446</v>
+        <v>10.09333172774097</v>
       </c>
       <c r="K2">
-        <v>14.08108372179038</v>
+        <v>9.524941405618048</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.19875720386812</v>
+        <v>14.79781808505996</v>
       </c>
       <c r="N2">
-        <v>12.27512369450992</v>
+        <v>18.37744084083419</v>
       </c>
       <c r="O2">
-        <v>13.76361986315648</v>
+        <v>21.57600693860355</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.868234873069222</v>
+        <v>5.865021261058802</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.873776409250521</v>
+        <v>9.998942564881139</v>
       </c>
       <c r="E3">
-        <v>9.173252849442882</v>
+        <v>14.22879470607172</v>
       </c>
       <c r="F3">
-        <v>19.7225741913449</v>
+        <v>29.34729312179984</v>
       </c>
       <c r="G3">
-        <v>20.79660342949794</v>
+        <v>28.36256298529009</v>
       </c>
       <c r="H3">
-        <v>8.493829046832793</v>
+        <v>14.25318810934908</v>
       </c>
       <c r="I3">
-        <v>12.6304210162629</v>
+        <v>19.78030965945597</v>
       </c>
       <c r="J3">
-        <v>5.877927447946212</v>
+        <v>10.11573231375795</v>
       </c>
       <c r="K3">
-        <v>13.28482122666267</v>
+        <v>9.214119897451168</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.59148229234543</v>
+        <v>14.68570915092243</v>
       </c>
       <c r="N3">
-        <v>12.41043293114258</v>
+        <v>18.42418761653918</v>
       </c>
       <c r="O3">
-        <v>13.68987815867033</v>
+        <v>21.63146523230607</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.593285929264332</v>
+        <v>5.787732293025661</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.736315747724062</v>
+        <v>9.988827213803523</v>
       </c>
       <c r="E4">
-        <v>9.073802886679443</v>
+        <v>14.23611692098226</v>
       </c>
       <c r="F4">
-        <v>19.52877844341768</v>
+        <v>29.37711657222443</v>
       </c>
       <c r="G4">
-        <v>20.50965555707941</v>
+        <v>28.3846496307545</v>
       </c>
       <c r="H4">
-        <v>8.513213852138897</v>
+        <v>14.27905110460262</v>
       </c>
       <c r="I4">
-        <v>12.79454211804411</v>
+        <v>19.83996645434897</v>
       </c>
       <c r="J4">
-        <v>5.891131061413157</v>
+        <v>10.13062190614265</v>
       </c>
       <c r="K4">
-        <v>12.77008499275735</v>
+        <v>9.01855894178513</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.20517269411797</v>
+        <v>14.61847179748038</v>
       </c>
       <c r="N4">
-        <v>12.49644845107153</v>
+        <v>18.45447966996254</v>
       </c>
       <c r="O4">
-        <v>13.65520076316133</v>
+        <v>21.66979989406646</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.477608479646404</v>
+        <v>5.756164012315336</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.680210433028426</v>
+        <v>9.985108311902694</v>
       </c>
       <c r="E5">
-        <v>9.034207288618511</v>
+        <v>14.23970732755989</v>
       </c>
       <c r="F5">
-        <v>19.45308990455669</v>
+        <v>29.39091717012001</v>
       </c>
       <c r="G5">
-        <v>20.39686819138271</v>
+        <v>28.39576141426966</v>
       </c>
       <c r="H5">
-        <v>8.522321724373414</v>
+        <v>14.29011635719921</v>
       </c>
       <c r="I5">
-        <v>12.86268250562237</v>
+        <v>19.86501617093034</v>
       </c>
       <c r="J5">
-        <v>5.897113294578366</v>
+        <v>10.13697539985037</v>
       </c>
       <c r="K5">
-        <v>12.55390824685644</v>
+        <v>8.937796469416421</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.0445566593415</v>
+        <v>14.59149701020788</v>
       </c>
       <c r="N5">
-        <v>12.53223943086393</v>
+        <v>18.46722449644725</v>
       </c>
       <c r="O5">
-        <v>13.64366613426879</v>
+        <v>21.68649715832801</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.458181874372396</v>
+        <v>5.750919077279537</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.670891406159135</v>
+        <v>9.984515233963682</v>
       </c>
       <c r="E6">
-        <v>9.027689723832118</v>
+        <v>14.24034016516826</v>
       </c>
       <c r="F6">
-        <v>19.44072081718019</v>
+        <v>29.39330819255357</v>
       </c>
       <c r="G6">
-        <v>20.3783924121513</v>
+        <v>28.39773391322539</v>
       </c>
       <c r="H6">
-        <v>8.523905979257087</v>
+        <v>14.29198549747954</v>
       </c>
       <c r="I6">
-        <v>12.87407367956097</v>
+        <v>19.86922035356769</v>
       </c>
       <c r="J6">
-        <v>5.898142594372134</v>
+        <v>10.13804766755618</v>
       </c>
       <c r="K6">
-        <v>12.51762734010657</v>
+        <v>8.924324891200042</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.01769983994333</v>
+        <v>14.5870441980967</v>
       </c>
       <c r="N6">
-        <v>12.53822716062802</v>
+        <v>18.46936498560999</v>
       </c>
       <c r="O6">
-        <v>13.64190554874997</v>
+        <v>21.6893346443744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.59174053093731</v>
+        <v>5.787306785499251</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.735559335619093</v>
+        <v>9.988775422725995</v>
       </c>
       <c r="E7">
-        <v>9.073265070227848</v>
+        <v>14.23616288566801</v>
       </c>
       <c r="F7">
-        <v>19.52774435491669</v>
+        <v>29.37729602420458</v>
       </c>
       <c r="G7">
-        <v>20.50811758363879</v>
+        <v>28.38479094490394</v>
       </c>
       <c r="H7">
-        <v>8.513331840387512</v>
+        <v>14.27919820513749</v>
       </c>
       <c r="I7">
-        <v>12.79545596304532</v>
+        <v>19.84030128845661</v>
       </c>
       <c r="J7">
-        <v>5.891209321197652</v>
+        <v>10.13070643369974</v>
       </c>
       <c r="K7">
-        <v>12.76719542441738</v>
+        <v>9.017473921962251</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.20301922147601</v>
+        <v>14.61810625526644</v>
       </c>
       <c r="N7">
-        <v>12.49692814723126</v>
+        <v>18.45464992803956</v>
       </c>
       <c r="O7">
-        <v>13.65503478356649</v>
+        <v>21.67002072622202</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.14912869334061</v>
+        <v>5.947122512985373</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.019913631487026</v>
+        <v>10.01110549908329</v>
       </c>
       <c r="E8">
-        <v>9.282455772638384</v>
+        <v>14.22305233721869</v>
       </c>
       <c r="F8">
-        <v>19.9405300879799</v>
+        <v>29.32110339651351</v>
       </c>
       <c r="G8">
-        <v>21.11675107711814</v>
+        <v>28.34622102453295</v>
       </c>
       <c r="H8">
-        <v>8.477379589577223</v>
+        <v>14.22738720313839</v>
       </c>
       <c r="I8">
-        <v>12.45955241069846</v>
+        <v>19.71917117240021</v>
       </c>
       <c r="J8">
-        <v>5.865931909549628</v>
+        <v>10.10081996295362</v>
       </c>
       <c r="K8">
-        <v>13.81193276732841</v>
+        <v>9.418815270675692</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.99226147137422</v>
+        <v>14.75884535352204</v>
       </c>
       <c r="N8">
-        <v>12.32116958032877</v>
+        <v>18.39322981150938</v>
       </c>
       <c r="O8">
-        <v>13.73595368982165</v>
+        <v>21.59423919071475</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.125792361648426</v>
+        <v>6.25495318028967</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.568573101737414</v>
+        <v>10.06735455980293</v>
       </c>
       <c r="E9">
-        <v>9.719221710805217</v>
+        <v>14.21641494112733</v>
       </c>
       <c r="F9">
-        <v>20.85118552820582</v>
+        <v>29.26296691922427</v>
       </c>
       <c r="G9">
-        <v>22.43426843664289</v>
+        <v>28.33740041856774</v>
       </c>
       <c r="H9">
-        <v>8.447889205941836</v>
+        <v>14.14237332095875</v>
       </c>
       <c r="I9">
-        <v>11.83942397129934</v>
+        <v>19.50480605907694</v>
       </c>
       <c r="J9">
-        <v>5.836376161411351</v>
+        <v>10.05120832615564</v>
       </c>
       <c r="K9">
-        <v>15.65334841700654</v>
+        <v>10.16384257856215</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.66841165526051</v>
+        <v>15.0464678826535</v>
       </c>
       <c r="N9">
-        <v>11.99977012767258</v>
+        <v>18.2853541445532</v>
       </c>
       <c r="O9">
-        <v>13.98157063209895</v>
+        <v>21.47967550116292</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.771760641385958</v>
+        <v>6.475333489929419</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.962030689066495</v>
+        <v>10.11604899226657</v>
       </c>
       <c r="E10">
-        <v>10.05398967913476</v>
+        <v>14.22309999536661</v>
       </c>
       <c r="F10">
-        <v>21.57921755179025</v>
+        <v>29.25200775081799</v>
       </c>
       <c r="G10">
-        <v>23.47155439020165</v>
+        <v>28.371693153319</v>
       </c>
       <c r="H10">
-        <v>8.453584540590411</v>
+        <v>14.09002042072116</v>
       </c>
       <c r="I10">
-        <v>11.40632716863762</v>
+        <v>19.3613111736722</v>
       </c>
       <c r="J10">
-        <v>5.827718733712207</v>
+        <v>10.02022300572103</v>
       </c>
       <c r="K10">
-        <v>16.87783110300211</v>
+        <v>10.68015522186134</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.8242312688827</v>
+        <v>15.2634422125421</v>
       </c>
       <c r="N10">
-        <v>11.77781053122587</v>
+        <v>18.2137019101826</v>
       </c>
       <c r="O10">
-        <v>14.21851504505418</v>
+        <v>21.41633455622848</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.05005046272516</v>
+        <v>6.57387029023251</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.138181401753602</v>
+        <v>10.1397471251554</v>
       </c>
       <c r="E11">
-        <v>10.20881044763614</v>
+        <v>14.22863357807534</v>
       </c>
       <c r="F11">
-        <v>21.92254003598138</v>
+        <v>29.25390831001066</v>
       </c>
       <c r="G11">
-        <v>23.95709148111928</v>
+        <v>28.3961268231645</v>
       </c>
       <c r="H11">
-        <v>8.46263057610968</v>
+        <v>14.0683970458495</v>
       </c>
       <c r="I11">
-        <v>11.21396482364728</v>
+        <v>19.29904456922806</v>
       </c>
       <c r="J11">
-        <v>5.826805752041347</v>
+        <v>10.00730931744389</v>
       </c>
       <c r="K11">
-        <v>17.40683379427924</v>
+        <v>10.90733069837851</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.32270094238482</v>
+        <v>15.36306563410422</v>
       </c>
       <c r="N11">
-        <v>11.67992372005341</v>
+        <v>18.18274432749805</v>
       </c>
       <c r="O11">
-        <v>14.33920891836795</v>
+        <v>21.39205508547902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.153194834935688</v>
+        <v>6.610901351156688</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.204424039248098</v>
+        <v>10.14893839212616</v>
       </c>
       <c r="E12">
-        <v>10.26776189666131</v>
+        <v>14.23108550153138</v>
       </c>
       <c r="F12">
-        <v>22.05423130204962</v>
+        <v>29.25561625734829</v>
       </c>
       <c r="G12">
-        <v>24.14280292819959</v>
+        <v>28.40664529667762</v>
       </c>
       <c r="H12">
-        <v>8.467026842177336</v>
+        <v>14.06052397649526</v>
       </c>
       <c r="I12">
-        <v>11.14177360333131</v>
+        <v>19.27589666308975</v>
       </c>
       <c r="J12">
-        <v>5.826911126677118</v>
+        <v>10.00258883567133</v>
       </c>
       <c r="K12">
-        <v>17.60312222992127</v>
+        <v>10.9921805657305</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.50755682312261</v>
+        <v>15.40089626557505</v>
       </c>
       <c r="N12">
-        <v>11.64330232088969</v>
+        <v>18.17125605210775</v>
       </c>
       <c r="O12">
-        <v>14.3868127268731</v>
+        <v>21.38351395978047</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.131080347453285</v>
+        <v>6.602939170273296</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.190178831480747</v>
+        <v>10.14694930827263</v>
       </c>
       <c r="E13">
-        <v>10.25505184598202</v>
+        <v>14.2305416148945</v>
       </c>
       <c r="F13">
-        <v>22.02579539542778</v>
+        <v>29.25520450600444</v>
       </c>
       <c r="G13">
-        <v>24.10272618782468</v>
+        <v>28.40432373513761</v>
       </c>
       <c r="H13">
-        <v>8.466036175706467</v>
+        <v>14.06220556300486</v>
       </c>
       <c r="I13">
-        <v>11.15729254372992</v>
+        <v>19.28086283250175</v>
       </c>
       <c r="J13">
-        <v>5.82686811006679</v>
+        <v>10.00359793496792</v>
       </c>
       <c r="K13">
-        <v>17.56102736753276</v>
+        <v>10.97395997948634</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.46791798977357</v>
+        <v>15.39274450418056</v>
       </c>
       <c r="N13">
-        <v>11.65116949519001</v>
+        <v>18.1737198319007</v>
       </c>
       <c r="O13">
-        <v>14.37647526335458</v>
+        <v>21.38532438987302</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.058581052344872</v>
+        <v>6.576922721186033</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.143640764903422</v>
+        <v>10.14049897151048</v>
       </c>
       <c r="E14">
-        <v>10.21365414421089</v>
+        <v>14.2288281669078</v>
       </c>
       <c r="F14">
-        <v>21.93334099375856</v>
+        <v>29.25402903148684</v>
       </c>
       <c r="G14">
-        <v>23.97233365836399</v>
+        <v>28.39696684228822</v>
       </c>
       <c r="H14">
-        <v>8.46297256068573</v>
+        <v>14.06774300603281</v>
       </c>
       <c r="I14">
-        <v>11.20801263662603</v>
+        <v>19.29713154684549</v>
       </c>
       <c r="J14">
-        <v>5.826805287301296</v>
+        <v>10.00691756207311</v>
       </c>
       <c r="K14">
-        <v>17.4230633914734</v>
+        <v>10.91433529814764</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.33798722952755</v>
+        <v>15.36617602511215</v>
       </c>
       <c r="N14">
-        <v>11.67690189364027</v>
+        <v>18.18179448096662</v>
       </c>
       <c r="O14">
-        <v>14.3430870074954</v>
+        <v>21.39133931061092</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.01388175128271</v>
+        <v>6.560949052487229</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.115073222343071</v>
+        <v>10.13657609612722</v>
       </c>
       <c r="E15">
-        <v>10.18833791880378</v>
+        <v>14.22782499274225</v>
       </c>
       <c r="F15">
-        <v>21.87692725758496</v>
+        <v>29.25343764898103</v>
       </c>
       <c r="G15">
-        <v>23.8927019301835</v>
+        <v>28.39262524680897</v>
       </c>
       <c r="H15">
-        <v>8.46122368978655</v>
+        <v>14.07117590205595</v>
       </c>
       <c r="I15">
-        <v>11.23916458084744</v>
+        <v>19.30715269607851</v>
       </c>
       <c r="J15">
-        <v>5.82682603584479</v>
+        <v>10.00897301501325</v>
       </c>
       <c r="K15">
-        <v>17.33803122485819</v>
+        <v>10.87765830837276</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.2578932982341</v>
+        <v>15.34991498989665</v>
       </c>
       <c r="N15">
-        <v>11.69272193840343</v>
+        <v>18.18677097773014</v>
       </c>
       <c r="O15">
-        <v>14.32288434121741</v>
+        <v>21.39510868479449</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.753260498776983</v>
+        <v>6.46885622746423</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.95045699429639</v>
+        <v>10.11453095639685</v>
       </c>
       <c r="E16">
-        <v>10.04391928224517</v>
+        <v>14.22278835727178</v>
       </c>
       <c r="F16">
-        <v>21.55701947601506</v>
+        <v>29.25202195702202</v>
       </c>
       <c r="G16">
-        <v>23.44008835906709</v>
+        <v>28.37027377865537</v>
       </c>
       <c r="H16">
-        <v>8.453126882391535</v>
+        <v>14.09147767211036</v>
       </c>
       <c r="I16">
-        <v>11.41899071464815</v>
+        <v>19.36544086292493</v>
       </c>
       <c r="J16">
-        <v>5.827840641744803</v>
+        <v>10.02109070089417</v>
       </c>
       <c r="K16">
-        <v>16.84269514586872</v>
+        <v>10.66514773369612</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.79110739794569</v>
+        <v>15.25694780790633</v>
       </c>
       <c r="N16">
-        <v>11.7842699341257</v>
+        <v>18.21575794363511</v>
       </c>
       <c r="O16">
-        <v>14.2108909803942</v>
+        <v>21.41801260687794</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.589390539208146</v>
+        <v>6.411894538065523</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.848703463056031</v>
+        <v>10.10139958039544</v>
       </c>
       <c r="E17">
-        <v>9.955942835944048</v>
+        <v>14.22033562366549</v>
       </c>
       <c r="F17">
-        <v>21.3638303425014</v>
+        <v>29.25291596434932</v>
       </c>
       <c r="G17">
-        <v>23.16584095200315</v>
+        <v>28.35882181620859</v>
       </c>
       <c r="H17">
-        <v>8.449843239150564</v>
+        <v>14.10449363195293</v>
       </c>
       <c r="I17">
-        <v>11.53048844626047</v>
+        <v>19.40196845318135</v>
       </c>
       <c r="J17">
-        <v>5.829249248305318</v>
+        <v>10.0288269737961</v>
       </c>
       <c r="K17">
-        <v>16.53164013528934</v>
+        <v>10.53275565367577</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.49776867757952</v>
+        <v>15.20013207692479</v>
       </c>
       <c r="N17">
-        <v>11.84122317948882</v>
+        <v>18.23395933213373</v>
       </c>
       <c r="O17">
-        <v>14.14552506873975</v>
+        <v>21.43322555278812</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.493671651034008</v>
+        <v>6.378972231985418</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.789913470537761</v>
+        <v>10.09399267505713</v>
       </c>
       <c r="E18">
-        <v>9.905581844447122</v>
+        <v>14.21915961405016</v>
       </c>
       <c r="F18">
-        <v>21.25385929047581</v>
+        <v>29.25407847030722</v>
       </c>
       <c r="G18">
-        <v>23.00939453424928</v>
+        <v>28.35306677529696</v>
       </c>
       <c r="H18">
-        <v>8.448559612434968</v>
+        <v>14.11218641133384</v>
       </c>
       <c r="I18">
-        <v>11.59505824578769</v>
+        <v>19.42326156831611</v>
       </c>
       <c r="J18">
-        <v>5.830343217870788</v>
+        <v>10.0333879160999</v>
       </c>
       <c r="K18">
-        <v>16.35009174488085</v>
+        <v>10.45588630657056</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.32647491892157</v>
+        <v>15.16754145365345</v>
       </c>
       <c r="N18">
-        <v>11.87427121716265</v>
+        <v>18.24458245189326</v>
       </c>
       <c r="O18">
-        <v>14.1091408797704</v>
+        <v>21.44240241564153</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.461011271548209</v>
+        <v>6.367799056299884</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.769964598264097</v>
+        <v>10.09151003724298</v>
       </c>
       <c r="E19">
-        <v>9.888573075536918</v>
+        <v>14.21880180953929</v>
       </c>
       <c r="F19">
-        <v>21.2168237619666</v>
+        <v>29.25458346845128</v>
       </c>
       <c r="G19">
-        <v>22.95665027410937</v>
+        <v>28.35126119092803</v>
       </c>
       <c r="H19">
-        <v>8.448227623534983</v>
+        <v>14.11482649388307</v>
       </c>
       <c r="I19">
-        <v>11.61699643337083</v>
+        <v>19.43051978011442</v>
       </c>
       <c r="J19">
-        <v>5.830761872194194</v>
+        <v>10.03495128714084</v>
       </c>
       <c r="K19">
-        <v>16.28816980211043</v>
+        <v>10.42973810278563</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.2680351816391</v>
+        <v>15.15652281308382</v>
       </c>
       <c r="N19">
-        <v>11.88551045874897</v>
+        <v>18.24820575878444</v>
       </c>
       <c r="O19">
-        <v>14.09702866268365</v>
+        <v>21.44558281289339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.606986429172652</v>
+        <v>6.417974978094746</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.859563042194882</v>
+        <v>10.10278237249545</v>
       </c>
       <c r="E20">
-        <v>9.96528346021309</v>
+        <v>14.22057244025711</v>
       </c>
       <c r="F20">
-        <v>21.38427748119186</v>
+        <v>29.25275371138209</v>
       </c>
       <c r="G20">
-        <v>23.19490205758912</v>
+        <v>28.35995483285807</v>
       </c>
       <c r="H20">
-        <v>8.450129862414011</v>
+        <v>14.10308670501404</v>
       </c>
       <c r="I20">
-        <v>11.51857398536742</v>
+        <v>19.39805070935214</v>
       </c>
       <c r="J20">
-        <v>5.829069814706651</v>
+        <v>10.02799192310712</v>
       </c>
       <c r="K20">
-        <v>16.56502552788563</v>
+        <v>10.54692415971565</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.52926122395241</v>
+        <v>15.20617126702563</v>
       </c>
       <c r="N20">
-        <v>11.83513037424588</v>
+        <v>18.23200581359225</v>
       </c>
       <c r="O20">
-        <v>14.15235755458803</v>
+        <v>21.43156193159552</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.079936573566066</v>
+        <v>6.584572330177038</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.157323054577482</v>
+        <v>10.14238773648519</v>
       </c>
       <c r="E21">
-        <v>10.22580516403092</v>
+        <v>14.22932179005424</v>
       </c>
       <c r="F21">
-        <v>21.9604519280075</v>
+        <v>29.2543474949866</v>
       </c>
       <c r="G21">
-        <v>24.01058381616236</v>
+        <v>28.39909342361373</v>
       </c>
       <c r="H21">
-        <v>8.463845733853406</v>
+        <v>14.0661079695596</v>
       </c>
       <c r="I21">
-        <v>11.19309735337305</v>
+        <v>19.29234134461674</v>
       </c>
       <c r="J21">
-        <v>5.826811367389663</v>
+        <v>10.00593790502104</v>
       </c>
       <c r="K21">
-        <v>17.46369621253585</v>
+        <v>10.93188095872242</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.3762567751384</v>
+        <v>15.37397718597036</v>
       </c>
       <c r="N21">
-        <v>11.66933152779103</v>
+        <v>18.17941639741694</v>
       </c>
       <c r="O21">
-        <v>14.35284206747303</v>
+        <v>21.38955485446652</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.375994471865399</v>
+        <v>6.691790603844959</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.349214250102682</v>
+        <v>10.16953615795497</v>
       </c>
       <c r="E22">
-        <v>10.39794368571209</v>
+        <v>14.23711675272469</v>
       </c>
       <c r="F22">
-        <v>22.34679381435545</v>
+        <v>29.26114799814737</v>
       </c>
       <c r="G22">
-        <v>24.55440849792236</v>
+        <v>28.43204876640503</v>
       </c>
       <c r="H22">
-        <v>8.478487836135931</v>
+        <v>14.04377763652314</v>
       </c>
       <c r="I22">
-        <v>10.98417305063485</v>
+        <v>19.22576619233048</v>
       </c>
       <c r="J22">
-        <v>5.82797240440782</v>
+        <v>9.992513060172158</v>
       </c>
       <c r="K22">
-        <v>18.02752338921047</v>
+        <v>11.17658787731852</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.90707727086473</v>
+        <v>15.48424992662515</v>
       </c>
       <c r="N22">
-        <v>11.5635752147982</v>
+        <v>18.14641377871467</v>
       </c>
       <c r="O22">
-        <v>14.49495985684902</v>
+        <v>21.36590718016561</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.219175365984308</v>
+        <v>6.634729613387338</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.247062618302152</v>
+        <v>10.15493263488788</v>
       </c>
       <c r="E23">
-        <v>10.30591148118043</v>
+        <v>14.2327671102482</v>
       </c>
       <c r="F23">
-        <v>22.13972163968608</v>
+        <v>29.25699232317977</v>
       </c>
       <c r="G23">
-        <v>24.26321384471056</v>
+        <v>28.413786781688</v>
       </c>
       <c r="H23">
-        <v>8.470139450877692</v>
+        <v>14.05552763828793</v>
       </c>
       <c r="I23">
-        <v>11.09533853960462</v>
+        <v>19.26106931672539</v>
       </c>
       <c r="J23">
-        <v>5.827106048285437</v>
+        <v>9.999587774803182</v>
       </c>
       <c r="K23">
-        <v>17.7287482871034</v>
+        <v>11.04663408022883</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.62583998434098</v>
+        <v>15.42534913236799</v>
       </c>
       <c r="N23">
-        <v>11.61978003439181</v>
+        <v>18.16390301002035</v>
       </c>
       <c r="O23">
-        <v>14.41808102948698</v>
+        <v>21.37817985143039</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.599036023967289</v>
+        <v>6.41522655121791</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.854654327225652</v>
+        <v>10.10215676794609</v>
       </c>
       <c r="E24">
-        <v>9.961059882392927</v>
+        <v>14.22046464614499</v>
       </c>
       <c r="F24">
-        <v>21.37502991135048</v>
+        <v>29.25282504569656</v>
       </c>
       <c r="G24">
-        <v>23.18175971631512</v>
+        <v>28.35944001393806</v>
       </c>
       <c r="H24">
-        <v>8.449998401354843</v>
+        <v>14.10372212338276</v>
       </c>
       <c r="I24">
-        <v>11.52395905328371</v>
+        <v>19.39982100880243</v>
       </c>
       <c r="J24">
-        <v>5.829150052806888</v>
+        <v>10.02836909672271</v>
       </c>
       <c r="K24">
-        <v>16.54994045970382</v>
+        <v>10.54052092558462</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.51503169791028</v>
+        <v>15.20344071818395</v>
       </c>
       <c r="N24">
-        <v>11.83788398212937</v>
+        <v>18.23288850430744</v>
       </c>
       <c r="O24">
-        <v>14.14926486724727</v>
+        <v>21.43231271308801</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.874124718674808</v>
+        <v>6.172527340463445</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.421562281331176</v>
+        <v>10.05082615953524</v>
       </c>
       <c r="E25">
-        <v>9.598460063223188</v>
+        <v>14.21617463501049</v>
       </c>
       <c r="F25">
-        <v>20.59425096433964</v>
+        <v>29.27311691759902</v>
       </c>
       <c r="G25">
-        <v>22.06519693363923</v>
+        <v>28.33262380660831</v>
       </c>
       <c r="H25">
-        <v>8.451234418060077</v>
+        <v>14.16359654223613</v>
       </c>
       <c r="I25">
-        <v>12.00315785341614</v>
+        <v>19.56033004529237</v>
       </c>
       <c r="J25">
-        <v>5.842141926827197</v>
+        <v>10.06366856476662</v>
       </c>
       <c r="K25">
-        <v>15.17765304870176</v>
+        <v>9.967389852284237</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.21840652177902</v>
+        <v>14.96755934207973</v>
       </c>
       <c r="N25">
-        <v>12.08422992255506</v>
+        <v>18.31319786243901</v>
       </c>
       <c r="O25">
-        <v>13.90543639123328</v>
+        <v>21.50701505853499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.990141067415806</v>
+        <v>7.292314764988913</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.01800681850788</v>
+        <v>7.096523418124429</v>
       </c>
       <c r="E2">
-        <v>14.22079268370544</v>
+        <v>9.341016577548702</v>
       </c>
       <c r="F2">
-        <v>29.3093987828187</v>
+        <v>20.05930560908605</v>
       </c>
       <c r="G2">
-        <v>28.34028732308941</v>
+        <v>21.29026739818719</v>
       </c>
       <c r="H2">
-        <v>14.21447172672921</v>
+        <v>8.47032711317711</v>
       </c>
       <c r="I2">
-        <v>19.68792378048687</v>
+        <v>12.37118671852455</v>
       </c>
       <c r="J2">
-        <v>10.09333172774097</v>
+        <v>5.860406241083478</v>
       </c>
       <c r="K2">
-        <v>9.524941405618048</v>
+        <v>14.08108372179035</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.79781808505996</v>
+        <v>12.19875720386812</v>
       </c>
       <c r="N2">
-        <v>18.37744084083419</v>
+        <v>12.27512369450999</v>
       </c>
       <c r="O2">
-        <v>21.57600693860355</v>
+        <v>13.76361986315654</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.865021261058802</v>
+        <v>6.868234873069183</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.998942564881139</v>
+        <v>6.873776409250603</v>
       </c>
       <c r="E3">
-        <v>14.22879470607172</v>
+        <v>9.173252849442925</v>
       </c>
       <c r="F3">
-        <v>29.34729312179984</v>
+        <v>19.72257419134501</v>
       </c>
       <c r="G3">
-        <v>28.36256298529009</v>
+        <v>20.79660342949807</v>
       </c>
       <c r="H3">
-        <v>14.25318810934908</v>
+        <v>8.493829046832788</v>
       </c>
       <c r="I3">
-        <v>19.78030965945597</v>
+        <v>12.63042101626279</v>
       </c>
       <c r="J3">
-        <v>10.11573231375795</v>
+        <v>5.877927447946243</v>
       </c>
       <c r="K3">
-        <v>9.214119897451168</v>
+        <v>13.28482122666257</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.68570915092243</v>
+        <v>11.59148229234548</v>
       </c>
       <c r="N3">
-        <v>18.42418761653918</v>
+        <v>12.41043293114252</v>
       </c>
       <c r="O3">
-        <v>21.63146523230607</v>
+        <v>13.68987815867037</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.787732293025661</v>
+        <v>6.593285929264292</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.988827213803523</v>
+        <v>6.736315747724044</v>
       </c>
       <c r="E4">
-        <v>14.23611692098226</v>
+        <v>9.073802886679443</v>
       </c>
       <c r="F4">
-        <v>29.37711657222443</v>
+        <v>19.52877844341747</v>
       </c>
       <c r="G4">
-        <v>28.3846496307545</v>
+        <v>20.50965555707916</v>
       </c>
       <c r="H4">
-        <v>14.27905110460262</v>
+        <v>8.513213852138842</v>
       </c>
       <c r="I4">
-        <v>19.83996645434897</v>
+        <v>12.79454211804411</v>
       </c>
       <c r="J4">
-        <v>10.13062190614265</v>
+        <v>5.891131061413211</v>
       </c>
       <c r="K4">
-        <v>9.01855894178513</v>
+        <v>12.77008499275742</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.61847179748038</v>
+        <v>11.20517269411793</v>
       </c>
       <c r="N4">
-        <v>18.45447966996254</v>
+        <v>12.4964484510715</v>
       </c>
       <c r="O4">
-        <v>21.66979989406646</v>
+        <v>13.65520076316117</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.756164012315336</v>
+        <v>6.477608479646435</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.985108311902694</v>
+        <v>6.68021043302842</v>
       </c>
       <c r="E5">
-        <v>14.23970732755989</v>
+        <v>9.034207288618559</v>
       </c>
       <c r="F5">
-        <v>29.39091717012001</v>
+        <v>19.45308990455674</v>
       </c>
       <c r="G5">
-        <v>28.39576141426966</v>
+        <v>20.39686819138275</v>
       </c>
       <c r="H5">
-        <v>14.29011635719921</v>
+        <v>8.522321724373423</v>
       </c>
       <c r="I5">
-        <v>19.86501617093034</v>
+        <v>12.86268250562234</v>
       </c>
       <c r="J5">
-        <v>10.13697539985037</v>
+        <v>5.897113294578389</v>
       </c>
       <c r="K5">
-        <v>8.937796469416421</v>
+        <v>12.55390824685641</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.59149701020788</v>
+        <v>11.04455665934152</v>
       </c>
       <c r="N5">
-        <v>18.46722449644725</v>
+        <v>12.53223943086393</v>
       </c>
       <c r="O5">
-        <v>21.68649715832801</v>
+        <v>13.64366613426882</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.750919077279537</v>
+        <v>6.458181874372364</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.984515233963682</v>
+        <v>6.670891406159105</v>
       </c>
       <c r="E6">
-        <v>14.24034016516826</v>
+        <v>9.027689723832015</v>
       </c>
       <c r="F6">
-        <v>29.39330819255357</v>
+        <v>19.44072081718016</v>
       </c>
       <c r="G6">
-        <v>28.39773391322539</v>
+        <v>20.3783924121513</v>
       </c>
       <c r="H6">
-        <v>14.29198549747954</v>
+        <v>8.523905979257036</v>
       </c>
       <c r="I6">
-        <v>19.86922035356769</v>
+        <v>12.87407367956091</v>
       </c>
       <c r="J6">
-        <v>10.13804766755618</v>
+        <v>5.898142594372096</v>
       </c>
       <c r="K6">
-        <v>8.924324891200042</v>
+        <v>12.5176273401066</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.5870441980967</v>
+        <v>11.01769983994332</v>
       </c>
       <c r="N6">
-        <v>18.46936498560999</v>
+        <v>12.53822716062799</v>
       </c>
       <c r="O6">
-        <v>21.6893346443744</v>
+        <v>13.64190554874992</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.787306785499251</v>
+        <v>6.591740530937326</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.988775422725995</v>
+        <v>6.735559335619167</v>
       </c>
       <c r="E7">
-        <v>14.23616288566801</v>
+        <v>9.073265070227947</v>
       </c>
       <c r="F7">
-        <v>29.37729602420458</v>
+        <v>19.52774435491673</v>
       </c>
       <c r="G7">
-        <v>28.38479094490394</v>
+        <v>20.50811758363874</v>
       </c>
       <c r="H7">
-        <v>14.27919820513749</v>
+        <v>8.513331840387512</v>
       </c>
       <c r="I7">
-        <v>19.84030128845661</v>
+        <v>12.79545596304539</v>
       </c>
       <c r="J7">
-        <v>10.13070643369974</v>
+        <v>5.89120932119768</v>
       </c>
       <c r="K7">
-        <v>9.017473921962251</v>
+        <v>12.76719542441742</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.61810625526644</v>
+        <v>11.203019221476</v>
       </c>
       <c r="N7">
-        <v>18.45464992803956</v>
+        <v>12.4969281472313</v>
       </c>
       <c r="O7">
-        <v>21.67002072622202</v>
+        <v>13.65503478356647</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.947122512985373</v>
+        <v>7.149128693340543</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.01110549908329</v>
+        <v>7.019913631487104</v>
       </c>
       <c r="E8">
-        <v>14.22305233721869</v>
+        <v>9.282455772638523</v>
       </c>
       <c r="F8">
-        <v>29.32110339651351</v>
+        <v>19.94053008797989</v>
       </c>
       <c r="G8">
-        <v>28.34622102453295</v>
+        <v>21.11675107711807</v>
       </c>
       <c r="H8">
-        <v>14.22738720313839</v>
+        <v>8.477379589577176</v>
       </c>
       <c r="I8">
-        <v>19.71917117240021</v>
+        <v>12.45955241069849</v>
       </c>
       <c r="J8">
-        <v>10.10081996295362</v>
+        <v>5.865931909549686</v>
       </c>
       <c r="K8">
-        <v>9.418815270675692</v>
+        <v>13.81193276732841</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.75884535352204</v>
+        <v>11.99226147137421</v>
       </c>
       <c r="N8">
-        <v>18.39322981150938</v>
+        <v>12.32116958032877</v>
       </c>
       <c r="O8">
-        <v>21.59423919071475</v>
+        <v>13.73595368982162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.25495318028967</v>
+        <v>8.125792361648468</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.06735455980293</v>
+        <v>7.568573101737523</v>
       </c>
       <c r="E9">
-        <v>14.21641494112733</v>
+        <v>9.719221710805243</v>
       </c>
       <c r="F9">
-        <v>29.26296691922427</v>
+        <v>20.851185528206</v>
       </c>
       <c r="G9">
-        <v>28.33740041856774</v>
+        <v>22.43426843664309</v>
       </c>
       <c r="H9">
-        <v>14.14237332095875</v>
+        <v>8.447889205941895</v>
       </c>
       <c r="I9">
-        <v>19.50480605907694</v>
+        <v>11.83942397129934</v>
       </c>
       <c r="J9">
-        <v>10.05120832615564</v>
+        <v>5.836376161411319</v>
       </c>
       <c r="K9">
-        <v>10.16384257856215</v>
+        <v>15.65334841700649</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.0464678826535</v>
+        <v>13.66841165526047</v>
       </c>
       <c r="N9">
-        <v>18.2853541445532</v>
+        <v>11.99977012767262</v>
       </c>
       <c r="O9">
-        <v>21.47967550116292</v>
+        <v>13.98157063209906</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.475333489929419</v>
+        <v>8.771760641386042</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.11604899226657</v>
+        <v>7.962030689066449</v>
       </c>
       <c r="E10">
-        <v>14.22309999536661</v>
+        <v>10.05398967913473</v>
       </c>
       <c r="F10">
-        <v>29.25200775081799</v>
+        <v>21.57921755179029</v>
       </c>
       <c r="G10">
-        <v>28.371693153319</v>
+        <v>23.47155439020168</v>
       </c>
       <c r="H10">
-        <v>14.09002042072116</v>
+        <v>8.45358454059045</v>
       </c>
       <c r="I10">
-        <v>19.3613111736722</v>
+        <v>11.40632716863755</v>
       </c>
       <c r="J10">
-        <v>10.02022300572103</v>
+        <v>5.827718733712212</v>
       </c>
       <c r="K10">
-        <v>10.68015522186134</v>
+        <v>16.87783110300205</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.2634422125421</v>
+        <v>14.82423126888269</v>
       </c>
       <c r="N10">
-        <v>18.2137019101826</v>
+        <v>11.77781053122584</v>
       </c>
       <c r="O10">
-        <v>21.41633455622848</v>
+        <v>14.21851504505422</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.57387029023251</v>
+        <v>9.050050462725125</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.1397471251554</v>
+        <v>8.138181401753602</v>
       </c>
       <c r="E11">
-        <v>14.22863357807534</v>
+        <v>10.20881044763615</v>
       </c>
       <c r="F11">
-        <v>29.25390831001066</v>
+        <v>21.92254003598141</v>
       </c>
       <c r="G11">
-        <v>28.3961268231645</v>
+        <v>23.95709148111936</v>
       </c>
       <c r="H11">
-        <v>14.0683970458495</v>
+        <v>8.46263057610968</v>
       </c>
       <c r="I11">
-        <v>19.29904456922806</v>
+        <v>11.21396482364735</v>
       </c>
       <c r="J11">
-        <v>10.00730931744389</v>
+        <v>5.826805752041341</v>
       </c>
       <c r="K11">
-        <v>10.90733069837851</v>
+        <v>17.40683379427923</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.36306563410422</v>
+        <v>15.32270094238482</v>
       </c>
       <c r="N11">
-        <v>18.18274432749805</v>
+        <v>11.67992372005344</v>
       </c>
       <c r="O11">
-        <v>21.39205508547902</v>
+        <v>14.33920891836798</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.610901351156688</v>
+        <v>9.153194834935679</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.14893839212616</v>
+        <v>8.204424039248098</v>
       </c>
       <c r="E12">
-        <v>14.23108550153138</v>
+        <v>10.26776189666134</v>
       </c>
       <c r="F12">
-        <v>29.25561625734829</v>
+        <v>22.05423130204962</v>
       </c>
       <c r="G12">
-        <v>28.40664529667762</v>
+        <v>24.14280292819957</v>
       </c>
       <c r="H12">
-        <v>14.06052397649526</v>
+        <v>8.467026842177349</v>
       </c>
       <c r="I12">
-        <v>19.27589666308975</v>
+        <v>11.14177360333131</v>
       </c>
       <c r="J12">
-        <v>10.00258883567133</v>
+        <v>5.826911126677171</v>
       </c>
       <c r="K12">
-        <v>10.9921805657305</v>
+        <v>17.6031222299213</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.40089626557505</v>
+        <v>15.5075568231226</v>
       </c>
       <c r="N12">
-        <v>18.17125605210775</v>
+        <v>11.64330232088968</v>
       </c>
       <c r="O12">
-        <v>21.38351395978047</v>
+        <v>14.3868127268731</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.602939170273296</v>
+        <v>9.131080347453317</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.14694930827263</v>
+        <v>8.190178831480765</v>
       </c>
       <c r="E13">
-        <v>14.2305416148945</v>
+        <v>10.25505184598198</v>
       </c>
       <c r="F13">
-        <v>29.25520450600444</v>
+        <v>22.02579539542782</v>
       </c>
       <c r="G13">
-        <v>28.40432373513761</v>
+        <v>24.10272618782478</v>
       </c>
       <c r="H13">
-        <v>14.06220556300486</v>
+        <v>8.466036175706499</v>
       </c>
       <c r="I13">
-        <v>19.28086283250175</v>
+        <v>11.15729254372988</v>
       </c>
       <c r="J13">
-        <v>10.00359793496792</v>
+        <v>5.826868110066764</v>
       </c>
       <c r="K13">
-        <v>10.97395997948634</v>
+        <v>17.56102736753274</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.39274450418056</v>
+        <v>15.46791798977358</v>
       </c>
       <c r="N13">
-        <v>18.1737198319007</v>
+        <v>11.65116949519005</v>
       </c>
       <c r="O13">
-        <v>21.38532438987302</v>
+        <v>14.37647526335462</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.576922721186033</v>
+        <v>9.058581052344875</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.14049897151048</v>
+        <v>8.143640764903463</v>
       </c>
       <c r="E14">
-        <v>14.2288281669078</v>
+        <v>10.21365414421093</v>
       </c>
       <c r="F14">
-        <v>29.25402903148684</v>
+        <v>21.93334099375857</v>
       </c>
       <c r="G14">
-        <v>28.39696684228822</v>
+        <v>23.97233365836396</v>
       </c>
       <c r="H14">
-        <v>14.06774300603281</v>
+        <v>8.462972560685742</v>
       </c>
       <c r="I14">
-        <v>19.29713154684549</v>
+        <v>11.20801263662597</v>
       </c>
       <c r="J14">
-        <v>10.00691756207311</v>
+        <v>5.826805287301349</v>
       </c>
       <c r="K14">
-        <v>10.91433529814764</v>
+        <v>17.42306339147337</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.36617602511215</v>
+        <v>15.33798722952752</v>
       </c>
       <c r="N14">
-        <v>18.18179448096662</v>
+        <v>11.67690189364023</v>
       </c>
       <c r="O14">
-        <v>21.39133931061092</v>
+        <v>14.3430870074954</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.560949052487229</v>
+        <v>9.013881751282661</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.13657609612722</v>
+        <v>8.115073222343057</v>
       </c>
       <c r="E15">
-        <v>14.22782499274225</v>
+        <v>10.18833791880378</v>
       </c>
       <c r="F15">
-        <v>29.25343764898103</v>
+        <v>21.87692725758495</v>
       </c>
       <c r="G15">
-        <v>28.39262524680897</v>
+        <v>23.89270193018348</v>
       </c>
       <c r="H15">
-        <v>14.07117590205595</v>
+        <v>8.46122368978655</v>
       </c>
       <c r="I15">
-        <v>19.30715269607851</v>
+        <v>11.23916458084747</v>
       </c>
       <c r="J15">
-        <v>10.00897301501325</v>
+        <v>5.82682603584479</v>
       </c>
       <c r="K15">
-        <v>10.87765830837276</v>
+        <v>17.33803122485818</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.34991498989665</v>
+        <v>15.25789329823409</v>
       </c>
       <c r="N15">
-        <v>18.18677097773014</v>
+        <v>11.69272193840342</v>
       </c>
       <c r="O15">
-        <v>21.39510868479449</v>
+        <v>14.3228843412174</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.46885622746423</v>
+        <v>8.75326049877706</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.11453095639685</v>
+        <v>7.950456994296442</v>
       </c>
       <c r="E16">
-        <v>14.22278835727178</v>
+        <v>10.04391928224519</v>
       </c>
       <c r="F16">
-        <v>29.25202195702202</v>
+        <v>21.55701947601507</v>
       </c>
       <c r="G16">
-        <v>28.37027377865537</v>
+        <v>23.4400883590671</v>
       </c>
       <c r="H16">
-        <v>14.09147767211036</v>
+        <v>8.453126882391526</v>
       </c>
       <c r="I16">
-        <v>19.36544086292493</v>
+        <v>11.41899071464821</v>
       </c>
       <c r="J16">
-        <v>10.02109070089417</v>
+        <v>5.827840641744773</v>
       </c>
       <c r="K16">
-        <v>10.66514773369612</v>
+        <v>16.84269514586878</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.25694780790633</v>
+        <v>14.79110739794571</v>
       </c>
       <c r="N16">
-        <v>18.21575794363511</v>
+        <v>11.78426993412577</v>
       </c>
       <c r="O16">
-        <v>21.41801260687794</v>
+        <v>14.21089098039419</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.411894538065523</v>
+        <v>8.589390539208173</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.10139958039544</v>
+        <v>7.848703463055968</v>
       </c>
       <c r="E17">
-        <v>14.22033562366549</v>
+        <v>9.955942835944061</v>
       </c>
       <c r="F17">
-        <v>29.25291596434932</v>
+        <v>21.36383034250146</v>
       </c>
       <c r="G17">
-        <v>28.35882181620859</v>
+        <v>23.16584095200332</v>
       </c>
       <c r="H17">
-        <v>14.10449363195293</v>
+        <v>8.449843239150601</v>
       </c>
       <c r="I17">
-        <v>19.40196845318135</v>
+        <v>11.53048844626047</v>
       </c>
       <c r="J17">
-        <v>10.0288269737961</v>
+        <v>5.829249248305342</v>
       </c>
       <c r="K17">
-        <v>10.53275565367577</v>
+        <v>16.5316401352893</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.20013207692479</v>
+        <v>14.4977686775795</v>
       </c>
       <c r="N17">
-        <v>18.23395933213373</v>
+        <v>11.84122317948885</v>
       </c>
       <c r="O17">
-        <v>21.43322555278812</v>
+        <v>14.14552506873984</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.378972231985418</v>
+        <v>8.493671651034051</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.09399267505713</v>
+        <v>7.789913470537811</v>
       </c>
       <c r="E18">
-        <v>14.21915961405016</v>
+        <v>9.90558184444715</v>
       </c>
       <c r="F18">
-        <v>29.25407847030722</v>
+        <v>21.25385929047586</v>
       </c>
       <c r="G18">
-        <v>28.35306677529696</v>
+        <v>23.00939453424934</v>
       </c>
       <c r="H18">
-        <v>14.11218641133384</v>
+        <v>8.448559612434963</v>
       </c>
       <c r="I18">
-        <v>19.42326156831611</v>
+        <v>11.59505824578769</v>
       </c>
       <c r="J18">
-        <v>10.0333879160999</v>
+        <v>5.830343217870785</v>
       </c>
       <c r="K18">
-        <v>10.45588630657056</v>
+        <v>16.35009174488085</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.16754145365345</v>
+        <v>14.32647491892156</v>
       </c>
       <c r="N18">
-        <v>18.24458245189326</v>
+        <v>11.87427121716269</v>
       </c>
       <c r="O18">
-        <v>21.44240241564153</v>
+        <v>14.1091408797704</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.367799056299884</v>
+        <v>8.461011271548177</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.09151003724298</v>
+        <v>7.769964598263919</v>
       </c>
       <c r="E19">
-        <v>14.21880180953929</v>
+        <v>9.888573075536858</v>
       </c>
       <c r="F19">
-        <v>29.25458346845128</v>
+        <v>21.2168237619666</v>
       </c>
       <c r="G19">
-        <v>28.35126119092803</v>
+        <v>22.95665027410957</v>
       </c>
       <c r="H19">
-        <v>14.11482649388307</v>
+        <v>8.448227623535006</v>
       </c>
       <c r="I19">
-        <v>19.43051978011442</v>
+        <v>11.6169964333709</v>
       </c>
       <c r="J19">
-        <v>10.03495128714084</v>
+        <v>5.830761872194196</v>
       </c>
       <c r="K19">
-        <v>10.42973810278563</v>
+        <v>16.28816980211039</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.15652281308382</v>
+        <v>14.26803518163912</v>
       </c>
       <c r="N19">
-        <v>18.24820575878444</v>
+        <v>11.88551045874897</v>
       </c>
       <c r="O19">
-        <v>21.44558281289339</v>
+        <v>14.09702866268373</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.417974978094746</v>
+        <v>8.606986429172641</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.10278237249545</v>
+        <v>7.859563042194899</v>
       </c>
       <c r="E20">
-        <v>14.22057244025711</v>
+        <v>9.965283460213083</v>
       </c>
       <c r="F20">
-        <v>29.25275371138209</v>
+        <v>21.38427748119191</v>
       </c>
       <c r="G20">
-        <v>28.35995483285807</v>
+        <v>23.19490205758922</v>
       </c>
       <c r="H20">
-        <v>14.10308670501404</v>
+        <v>8.450129862413966</v>
       </c>
       <c r="I20">
-        <v>19.39805070935214</v>
+        <v>11.51857398536746</v>
       </c>
       <c r="J20">
-        <v>10.02799192310712</v>
+        <v>5.829069814706621</v>
       </c>
       <c r="K20">
-        <v>10.54692415971565</v>
+        <v>16.56502552788564</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.20617126702563</v>
+        <v>14.52926122395243</v>
       </c>
       <c r="N20">
-        <v>18.23200581359225</v>
+        <v>11.83513037424591</v>
       </c>
       <c r="O20">
-        <v>21.43156193159552</v>
+        <v>14.15235755458804</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.584572330177038</v>
+        <v>9.079936573566053</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.14238773648519</v>
+        <v>8.157323054577576</v>
       </c>
       <c r="E21">
-        <v>14.22932179005424</v>
+        <v>10.22580516403096</v>
       </c>
       <c r="F21">
-        <v>29.2543474949866</v>
+        <v>21.96045192800758</v>
       </c>
       <c r="G21">
-        <v>28.39909342361373</v>
+        <v>24.01058381616236</v>
       </c>
       <c r="H21">
-        <v>14.0661079695596</v>
+        <v>8.4638457338534</v>
       </c>
       <c r="I21">
-        <v>19.29234134461674</v>
+        <v>11.19309735337319</v>
       </c>
       <c r="J21">
-        <v>10.00593790502104</v>
+        <v>5.826811367389616</v>
       </c>
       <c r="K21">
-        <v>10.93188095872242</v>
+        <v>17.46369621253588</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.37397718597036</v>
+        <v>15.3762567751384</v>
       </c>
       <c r="N21">
-        <v>18.17941639741694</v>
+        <v>11.6693315277911</v>
       </c>
       <c r="O21">
-        <v>21.38955485446652</v>
+        <v>14.35284206747306</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.691790603844959</v>
+        <v>9.37599447186534</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.16953615795497</v>
+        <v>8.349214250102655</v>
       </c>
       <c r="E22">
-        <v>14.23711675272469</v>
+        <v>10.39794368571208</v>
       </c>
       <c r="F22">
-        <v>29.26114799814737</v>
+        <v>22.34679381435541</v>
       </c>
       <c r="G22">
-        <v>28.43204876640503</v>
+        <v>24.55440849792235</v>
       </c>
       <c r="H22">
-        <v>14.04377763652314</v>
+        <v>8.478487836135924</v>
       </c>
       <c r="I22">
-        <v>19.22576619233048</v>
+        <v>10.98417305063488</v>
       </c>
       <c r="J22">
-        <v>9.992513060172158</v>
+        <v>5.827972404407866</v>
       </c>
       <c r="K22">
-        <v>11.17658787731852</v>
+        <v>18.02752338921047</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.48424992662515</v>
+        <v>15.90707727086473</v>
       </c>
       <c r="N22">
-        <v>18.14641377871467</v>
+        <v>11.56357521479821</v>
       </c>
       <c r="O22">
-        <v>21.36590718016561</v>
+        <v>14.49495985684901</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.634729613387338</v>
+        <v>9.219175365984272</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.15493263488788</v>
+        <v>8.247062618302166</v>
       </c>
       <c r="E23">
-        <v>14.2327671102482</v>
+        <v>10.30591148118043</v>
       </c>
       <c r="F23">
-        <v>29.25699232317977</v>
+        <v>22.13972163968604</v>
       </c>
       <c r="G23">
-        <v>28.413786781688</v>
+        <v>24.26321384471051</v>
       </c>
       <c r="H23">
-        <v>14.05552763828793</v>
+        <v>8.470139450877692</v>
       </c>
       <c r="I23">
-        <v>19.26106931672539</v>
+        <v>11.09533853960462</v>
       </c>
       <c r="J23">
-        <v>9.999587774803182</v>
+        <v>5.827106048285436</v>
       </c>
       <c r="K23">
-        <v>11.04663408022883</v>
+        <v>17.72874828710338</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.42534913236799</v>
+        <v>15.62583998434098</v>
       </c>
       <c r="N23">
-        <v>18.16390301002035</v>
+        <v>11.61978003439178</v>
       </c>
       <c r="O23">
-        <v>21.37817985143039</v>
+        <v>14.41808102948694</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.41522655121791</v>
+        <v>8.599036023967322</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.10215676794609</v>
+        <v>7.854654327225681</v>
       </c>
       <c r="E24">
-        <v>14.22046464614499</v>
+        <v>9.961059882392959</v>
       </c>
       <c r="F24">
-        <v>29.25282504569656</v>
+        <v>21.37502991135046</v>
       </c>
       <c r="G24">
-        <v>28.35944001393806</v>
+        <v>23.18175971631505</v>
       </c>
       <c r="H24">
-        <v>14.10372212338276</v>
+        <v>8.449998401354849</v>
       </c>
       <c r="I24">
-        <v>19.39982100880243</v>
+        <v>11.52395905328364</v>
       </c>
       <c r="J24">
-        <v>10.02836909672271</v>
+        <v>5.829150052806888</v>
       </c>
       <c r="K24">
-        <v>10.54052092558462</v>
+        <v>16.54994045970385</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.20344071818395</v>
+        <v>14.51503169791028</v>
       </c>
       <c r="N24">
-        <v>18.23288850430744</v>
+        <v>11.83788398212933</v>
       </c>
       <c r="O24">
-        <v>21.43231271308801</v>
+        <v>14.14926486724721</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.172527340463445</v>
+        <v>7.874124718674816</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.05082615953524</v>
+        <v>7.421562281331205</v>
       </c>
       <c r="E25">
-        <v>14.21617463501049</v>
+        <v>9.598460063223101</v>
       </c>
       <c r="F25">
-        <v>29.27311691759902</v>
+        <v>20.59425096433955</v>
       </c>
       <c r="G25">
-        <v>28.33262380660831</v>
+        <v>22.06519693363923</v>
       </c>
       <c r="H25">
-        <v>14.16359654223613</v>
+        <v>8.451234418059911</v>
       </c>
       <c r="I25">
-        <v>19.56033004529237</v>
+        <v>12.00315785341611</v>
       </c>
       <c r="J25">
-        <v>10.06366856476662</v>
+        <v>5.84214192682711</v>
       </c>
       <c r="K25">
-        <v>9.967389852284237</v>
+        <v>15.17765304870178</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.96755934207973</v>
+        <v>13.21840652177906</v>
       </c>
       <c r="N25">
-        <v>18.31319786243901</v>
+        <v>12.08422992255502</v>
       </c>
       <c r="O25">
-        <v>21.50701505853499</v>
+        <v>13.90543639123321</v>
       </c>
     </row>
   </sheetData>
